--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t xml:space="preserve">C to C</t>
   </si>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">delay</t>
   </si>
   <si>
-    <t xml:space="preserve">Durchn. Packets lost</t>
+    <t xml:space="preserve">Packet loss(avg)</t>
   </si>
   <si>
-    <t xml:space="preserve">% of lost packets</t>
+    <t xml:space="preserve">Lost in %</t>
   </si>
   <si>
     <t xml:space="preserve">C to Java</t>
@@ -60,11 +60,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -81,13 +82,31 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,13 +143,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -146,6 +189,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -156,320 +259,381 @@
   </sheetPr>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.96428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.30102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="A3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <f aca="false">F3/B3*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="A4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="n">
         <f aca="false">(30+0+0+0+7+0+0+44+0+1)/10</f>
         <v>8.2</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="6" t="n">
         <f aca="false">F4/B4*100</f>
         <v>0.82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="C5" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="n">
         <f aca="false">(22+58+11+21452)/10</f>
         <v>2154.3</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="6" t="n">
         <f aca="false">F5/B5*100</f>
         <v>21.543</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="A7" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <f aca="false">F7/B7*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="A8" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="n">
         <f aca="false">(69)/10</f>
         <v>6.9</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="6" t="n">
         <f aca="false">F8/B8*100</f>
         <v>0.69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="C9" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="n">
         <f aca="false">(2+27+20837)/10</f>
         <v>2086.6</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="6" t="n">
         <f aca="false">F9/B9*100</f>
         <v>20.866</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <f aca="false">F11/B11*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="A12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="n">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <f aca="false">F12/B12*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="n">
         <f aca="false">(32+9+10+14212)/10</f>
         <v>1426.3</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="6" t="n">
         <f aca="false">F13/B13*100</f>
         <v>14.263</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="A15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>500</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="n">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
         <f aca="false">F15/B15*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="A16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D16" s="5" t="n">
         <v>500</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="n">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <f aca="false">F16/B16*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <v>500</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="n">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
         <f aca="false">F17/B17*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +692,7 @@
       <c r="D23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="8" t="n">
         <f aca="false">(102+36+178+32+144+64+148+122+16+85450)/10</f>
         <v>8629.2</v>
       </c>
@@ -537,6 +701,9 @@
         <v>86.292</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="0"/>
+    </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>10</v>
@@ -602,6 +769,9 @@
         <v>84.558</v>
       </c>
     </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0"/>
+    </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>10</v>
@@ -667,6 +837,9 @@
         <v>61.933</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="0"/>
+    </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>10</v>
@@ -732,6 +905,9 @@
         <v>31.034</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0"/>
+    </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>10</v>
@@ -795,26 +971,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,7 +1061,7 @@
       <c r="D45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="8" t="n">
         <f aca="false">(100000-93539)/10</f>
         <v>646.1</v>
       </c>
@@ -881,6 +1070,9 @@
         <v>6.461</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="0"/>
+    </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>10</v>
@@ -944,26 +1136,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,7 +1227,7 @@
       <c r="D55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="8" t="n">
         <f aca="false">(100000-30939)/10</f>
         <v>6906.1</v>
       </c>
@@ -1031,6 +1236,9 @@
         <v>69.061</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="0"/>
+    </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>10</v>
@@ -1095,6 +1303,9 @@
         <v>18.071</v>
       </c>
     </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="0"/>
+    </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>10</v>
@@ -1159,6 +1370,9 @@
         <v>17.779</v>
       </c>
     </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="0"/>
+    </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>10</v>
@@ -1223,6 +1437,9 @@
         <v>15.918</v>
       </c>
     </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="0"/>
+    </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>10</v>
@@ -1287,6 +1504,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A51:G51"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
